--- a/strava/view/sports.xlsx
+++ b/strava/view/sports.xlsx
@@ -468,85 +468,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Circuito</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:50:30</t>
+          <t>00:47:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.09</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Circuito</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1:25:12</t>
+          <t>00:50:54</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.77</v>
+        <v>5.6</v>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Caminhada ao entardecer</t>
+          <t>Circuito</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1:20:00</t>
+          <t>00:50:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>5.09</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -557,63 +557,63 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Circuito</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1:02:07</t>
+          <t>1:25:12</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.42</v>
+        <v>20.77</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prova</t>
+          <t>Caminhada ao entardecer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1:00:37</t>
+          <t>1:20:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.76</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,14 +623,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1:01:33</t>
+          <t>1:02:07</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.03</v>
+        <v>14.42</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -641,24 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Prova</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:51:54</t>
+          <t>1:00:37</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.24</v>
+        <v>7.76</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -669,7 +669,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:40:31</t>
+          <t>1:01:33</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.01</v>
+        <v>5.03</v>
       </c>
       <c r="F9" t="n">
-        <v>185</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -707,42 +707,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:45:53</t>
+          <t>00:51:54</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9.85</v>
+        <v>5.24</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Treino</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1:24:33</t>
+          <t>00:40:31</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.48</v>
+        <v>5.01</v>
       </c>
       <c r="F11" t="n">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -763,11 +763,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:43:46</t>
+          <t>00:45:53</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.76</v>
+        <v>9.85</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -776,40 +776,40 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Treino</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:51:09</t>
+          <t>1:24:33</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,25 +819,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:25:22</t>
+          <t>00:43:46</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.75</v>
+        <v>9.76</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -847,11 +847,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:25:17</t>
+          <t>00:51:09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.22</v>
+        <v>5.35</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
@@ -860,54 +860,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1:34:19</t>
+          <t>00:25:22</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.41</v>
+        <v>2.75</v>
       </c>
       <c r="F16" t="n">
-        <v>216</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Treino Feito</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:46:39</t>
+          <t>00:25:17</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.1</v>
+        <v>5.22</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
@@ -916,85 +916,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>00:43:54</t>
+          <t>1:34:19</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.12</v>
+        <v>5.41</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Treino Feito</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>00:44:04</t>
+          <t>00:46:39</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.02</v>
+        <v>5.1</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Prova</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>00:57:49</t>
+          <t>00:43:54</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.01</v>
+        <v>10.12</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1005,24 +1005,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Feito melhor que perfeito</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>00:25:03</t>
+          <t>00:44:04</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.2</v>
+        <v>10.02</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/strava/view/sports.xlsx
+++ b/strava/view/sports.xlsx
@@ -468,40 +468,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Prova</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:47:00</t>
+          <t>00:40:17</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.890000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +511,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:50:54</t>
+          <t>00:47:00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.6</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -529,21 +529,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Circuito</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:50:30</t>
+          <t>00:50:54</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.09</v>
+        <v>5.6</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -567,98 +567,98 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1:25:12</t>
+          <t>00:50:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.77</v>
+        <v>5.09</v>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Caminhada ao entardecer</t>
+          <t>Circuito</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1:20:00</t>
+          <t>1:25:12</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.5</v>
+        <v>20.77</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Caminhada ao entardecer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1:02:07</t>
+          <t>1:20:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.42</v>
+        <v>3.5</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Prova</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1:00:37</t>
+          <t>1:02:07</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.76</v>
+        <v>14.42</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -669,24 +669,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Prova</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1:01:33</t>
+          <t>1:00:37</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.03</v>
+        <v>7.76</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -697,7 +697,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -707,11 +707,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:51:54</t>
+          <t>1:01:33</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.24</v>
+        <v>5.03</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -735,25 +735,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:40:31</t>
+          <t>00:51:54</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.01</v>
+        <v>5.24</v>
       </c>
       <c r="F11" t="n">
-        <v>185</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -763,81 +763,81 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:45:53</t>
+          <t>00:40:31</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.85</v>
+        <v>5.01</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Treino</t>
+          <t>Treino feito</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1:24:33</t>
+          <t>00:45:53</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.48</v>
+        <v>9.85</v>
       </c>
       <c r="F13" t="n">
-        <v>216</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Treino</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:43:46</t>
+          <t>1:24:33</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.76</v>
+        <v>5.48</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:51:09</t>
+          <t>00:43:46</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.35</v>
+        <v>9.76</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -875,20 +875,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:25:22</t>
+          <t>00:51:09</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.75</v>
+        <v>5.35</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -898,103 +898,103 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Circuito</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:25:17</t>
+          <t>00:25:22</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.22</v>
+        <v>2.75</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Circuito</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1:34:19</t>
+          <t>00:25:17</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.41</v>
+        <v>5.22</v>
       </c>
       <c r="F18" t="n">
-        <v>216</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Treino Feito</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>00:46:39</t>
+          <t>1:34:19</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.1</v>
+        <v>5.41</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Treino feito</t>
+          <t>Treino Feito</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>00:43:54</t>
+          <t>00:46:39</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.12</v>
+        <v>5.1</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>00:44:04</t>
+          <t>00:43:54</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.02</v>
+        <v>10.12</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
